--- a/grade.xlsx
+++ b/grade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\StudentManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29569C7-8CC7-4563-9306-3C8A5EE5E71E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDD8D5-80E2-4257-8413-F26D54063099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D93DEF0E-9E5E-4CFD-83AA-8A37395EBFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D93DEF0E-9E5E-4CFD-83AA-8A37395EBFAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Class01</t>
   </si>
@@ -132,48 +132,6 @@
     <t>K05</t>
   </si>
   <si>
-    <t>Schedule01</t>
-  </si>
-  <si>
-    <t>Schedule02</t>
-  </si>
-  <si>
-    <t>Schedule03</t>
-  </si>
-  <si>
-    <t>Schedule04</t>
-  </si>
-  <si>
-    <t>Schedule05</t>
-  </si>
-  <si>
-    <t>Schedule06</t>
-  </si>
-  <si>
-    <t>Schedule07</t>
-  </si>
-  <si>
-    <t>Schedule08</t>
-  </si>
-  <si>
-    <t>Schedule09</t>
-  </si>
-  <si>
-    <t>Schedule11</t>
-  </si>
-  <si>
-    <t>Schedule12</t>
-  </si>
-  <si>
-    <t>Schedule13</t>
-  </si>
-  <si>
-    <t>Schedule14</t>
-  </si>
-  <si>
-    <t>Schedul10</t>
-  </si>
-  <si>
     <t>1,3</t>
   </si>
   <si>
@@ -211,6 +169,30 @@
   </si>
   <si>
     <t>3,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Id Teacher</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>Id Grade</t>
+  </si>
+  <si>
+    <t>Student quantity</t>
+  </si>
+  <si>
+    <t>day of week</t>
   </si>
 </sst>
 </file>
@@ -218,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -258,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -270,6 +252,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -585,426 +570,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031DF760-193C-4C61-8773-5A05981EB4A4}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1">
-        <v>202170021</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1">
+        <v>202170010</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5">
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>202170022</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.375</v>
       </c>
-      <c r="F1" s="5">
+      <c r="E3" s="5">
         <v>0.5</v>
       </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1">
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>202170023</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>202170024</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>202170025</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>202170026</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>202170027</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>202170028</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20217009</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>202170010</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
         <v>202170022</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2">
+      <c r="D12" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>202170023</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3">
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>202170025</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>202170027</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
         <v>202170024</v>
       </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>202170025</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
-        <v>202170026</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1">
-        <v>202170027</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>202170028</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20217009</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>202170010</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>202170022</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="D15" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>202170025</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1">
-        <v>202170027</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1">
-        <v>202170024</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.8125</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14">
+      <c r="H15" s="1">
         <v>55</v>
       </c>
     </row>
